--- a/PureRingMod.xlsx
+++ b/PureRingMod.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/Arduino/R2project/PureRingMod/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyc/Documents/Eurorack/R2Project/PureRingMod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0723BE-48AA-2E48-B8A0-6114AF3C1C28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576C1D60-8D15-374F-A877-1C3DF534F07D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="16540" windowHeight="12380" xr2:uid="{C789B6F9-DC7B-A346-A161-B2C8D22EC53E}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25080" windowHeight="12380" xr2:uid="{C789B6F9-DC7B-A346-A161-B2C8D22EC53E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$19</definedName>
     <definedName name="PureRingMod" localSheetId="0">Sheet1!$A$1:$N$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{5B4C6192-92E8-C541-8255-5CA3AFAF3EFF}" name="PureRingMod" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/andy/Documents/Arduino/R2project/PureRingMod/PureRingMod.csv" comma="1">
+    <textPr sourceFile="/Users/andy/Documents/Arduino/R2project/PureRingMod/PureRingMod.csv" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Library</t>
   </si>
@@ -109,12 +110,6 @@
     <t>GAIN, MICMIX, MIX, VOLCARIER, VOLMOD</t>
   </si>
   <si>
-    <t>9MMPOT</t>
-  </si>
-  <si>
-    <t>POT</t>
-  </si>
-  <si>
     <t>ad633-2</t>
   </si>
   <si>
@@ -278,16 +273,35 @@
   </si>
   <si>
     <t>Resistor</t>
+  </si>
+  <si>
+    <t>Alpha Vertical Potentiometer</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>671-5477</t>
+  </si>
+  <si>
+    <t>PJ301M-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,11 +327,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,25 +653,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E6681C-BD11-A343-9027-4EC1DDF8CD5A}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -702,28 +717,28 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -736,25 +751,34 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
+      <c r="L4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -768,10 +792,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -782,53 +806,53 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -839,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -850,45 +874,45 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
       </c>
       <c r="M11">
         <v>330</v>
@@ -896,25 +920,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12">
         <v>330</v>
@@ -922,25 +946,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>330</v>
@@ -948,25 +972,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M14">
         <v>330</v>
@@ -974,25 +998,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>330</v>
@@ -1000,25 +1024,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>330</v>
@@ -1026,25 +1050,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
         <v>330</v>
@@ -1052,25 +1076,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
         <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M18">
         <v>330</v>
@@ -1078,37 +1102,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
       </c>
       <c r="I19">
         <v>308869</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1116,5 +1140,6 @@
     <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>